--- a/Code/Results/Cases/Case_9_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.39073539132454</v>
+        <v>2.388608661242927</v>
       </c>
       <c r="C2">
-        <v>0.6756791444593944</v>
+        <v>0.6933942086593277</v>
       </c>
       <c r="D2">
-        <v>0.07067238416804855</v>
+        <v>0.07271596403306546</v>
       </c>
       <c r="E2">
-        <v>0.2657255579528979</v>
+        <v>0.2624818295279141</v>
       </c>
       <c r="F2">
-        <v>0.3318987783256375</v>
+        <v>0.3222633301371332</v>
       </c>
       <c r="G2">
-        <v>0.2261351895992334</v>
+        <v>0.2009071556306878</v>
       </c>
       <c r="H2">
-        <v>0.001527789639378274</v>
+        <v>0.00148364029869541</v>
       </c>
       <c r="I2">
-        <v>0.002981720793698184</v>
+        <v>0.003124250293148556</v>
       </c>
       <c r="J2">
-        <v>0.2055610796191303</v>
+        <v>0.2432795245446542</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1018262130237151</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0248141534052273</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9396752209015773</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8598007053700485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9453154294618002</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8316071784975918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.088002659511062</v>
+        <v>2.088436858454941</v>
       </c>
       <c r="C3">
-        <v>0.6075279365902304</v>
+        <v>0.61450412434138</v>
       </c>
       <c r="D3">
-        <v>0.0623157199007025</v>
+        <v>0.06363743717954407</v>
       </c>
       <c r="E3">
-        <v>0.2392065245419985</v>
+        <v>0.2371401822943611</v>
       </c>
       <c r="F3">
-        <v>0.3095798570672343</v>
+        <v>0.3028178973159683</v>
       </c>
       <c r="G3">
-        <v>0.2124042951345473</v>
+        <v>0.1894378905572509</v>
       </c>
       <c r="H3">
-        <v>0.0006711876954375029</v>
+        <v>0.0006652115880083631</v>
       </c>
       <c r="I3">
-        <v>0.001838760446170706</v>
+        <v>0.002077803855362159</v>
       </c>
       <c r="J3">
-        <v>0.2038645742191747</v>
+        <v>0.2413802205866773</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1075811164022387</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02673598875482464</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8183919858832738</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8268377191039207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8223933571965318</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8065671679629389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.901658738660899</v>
+        <v>1.903575971412039</v>
       </c>
       <c r="C4">
-        <v>0.5660266313295779</v>
+        <v>0.5666316962971791</v>
       </c>
       <c r="D4">
-        <v>0.05719934037919217</v>
+        <v>0.05809250289824064</v>
       </c>
       <c r="E4">
-        <v>0.2228760521914595</v>
+        <v>0.2215240632459299</v>
       </c>
       <c r="F4">
-        <v>0.2963172614435976</v>
+        <v>0.2912014556259805</v>
       </c>
       <c r="G4">
-        <v>0.204340417147904</v>
+        <v>0.1827352394032005</v>
       </c>
       <c r="H4">
-        <v>0.0003073451393320603</v>
+        <v>0.0003133485183075546</v>
       </c>
       <c r="I4">
-        <v>0.001305538213121071</v>
+        <v>0.001574535905856767</v>
       </c>
       <c r="J4">
-        <v>0.2030864637326317</v>
+        <v>0.2403067929060114</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1113618803270526</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0283840943319662</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7439920425140443</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8079201042915116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7469997791614276</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.7921467421519708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.82544753556877</v>
+        <v>1.827954264630222</v>
       </c>
       <c r="C5">
-        <v>0.5503351980403295</v>
+        <v>0.5483706399209325</v>
       </c>
       <c r="D5">
-        <v>0.05519454045416694</v>
+        <v>0.05591391265211598</v>
       </c>
       <c r="E5">
-        <v>0.2161159676233808</v>
+        <v>0.2150573104093318</v>
       </c>
       <c r="F5">
-        <v>0.2905648078616991</v>
+        <v>0.2861153985235561</v>
       </c>
       <c r="G5">
-        <v>0.2007069752760273</v>
+        <v>0.1796794464732656</v>
       </c>
       <c r="H5">
-        <v>0.0001970731018730021</v>
+        <v>0.0002052755972612452</v>
       </c>
       <c r="I5">
-        <v>0.001187488054481101</v>
+        <v>0.001474496186544272</v>
       </c>
       <c r="J5">
-        <v>0.202603050001855</v>
+        <v>0.2396660440183851</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1128196105031893</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02914149426493462</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7139120924756739</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7991242486213537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7165091053614674</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.7851741687019427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.812602177286379</v>
+        <v>1.815212045708364</v>
       </c>
       <c r="C6">
-        <v>0.5491340323937379</v>
+        <v>0.5467105680906457</v>
       </c>
       <c r="D6">
-        <v>0.05495628258308471</v>
+        <v>0.05564354823371787</v>
       </c>
       <c r="E6">
-        <v>0.2148814325346784</v>
+        <v>0.2138765259304627</v>
       </c>
       <c r="F6">
-        <v>0.2890635155245604</v>
+        <v>0.2847529517223037</v>
       </c>
       <c r="G6">
-        <v>0.1995794318031301</v>
+        <v>0.1786846835333833</v>
       </c>
       <c r="H6">
-        <v>0.0001807662900588092</v>
+        <v>0.0001891788518340043</v>
       </c>
       <c r="I6">
-        <v>0.001250560569060255</v>
+        <v>0.001557126229909223</v>
       </c>
       <c r="J6">
-        <v>0.2022457673802123</v>
+        <v>0.2392855530607036</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1128897704594518</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02923718969265021</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.709197772564238</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7959720843613667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7117148528763053</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.7824179408272158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.900131135480194</v>
+        <v>1.90205297415622</v>
       </c>
       <c r="C7">
-        <v>0.5696490921021962</v>
+        <v>0.5698735310949132</v>
       </c>
       <c r="D7">
-        <v>0.0574310136016436</v>
+        <v>0.05845724612143499</v>
       </c>
       <c r="E7">
-        <v>0.2224817362986471</v>
+        <v>0.2211313745081753</v>
       </c>
       <c r="F7">
-        <v>0.2947305640160138</v>
+        <v>0.288917653925175</v>
       </c>
       <c r="G7">
-        <v>0.2028449393769804</v>
+        <v>0.183489071787676</v>
       </c>
       <c r="H7">
-        <v>0.0003048767022630905</v>
+        <v>0.0003101710915962563</v>
       </c>
       <c r="I7">
-        <v>0.00150836292084211</v>
+        <v>0.001819004694244342</v>
       </c>
       <c r="J7">
-        <v>0.2023138126379607</v>
+        <v>0.2360795320390565</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1107682058753969</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02823998993904508</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7443530390835207</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8031304697407506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7472762447913297</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.7852500204730717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.285777408153024</v>
+        <v>2.284510667413656</v>
       </c>
       <c r="C8">
-        <v>0.6572418108313798</v>
+        <v>0.6702707232016394</v>
       </c>
       <c r="D8">
-        <v>0.0681335305210311</v>
+        <v>0.07040294919828938</v>
       </c>
       <c r="E8">
-        <v>0.2561898088042298</v>
+        <v>0.2533252440763434</v>
       </c>
       <c r="F8">
-        <v>0.3221111872546629</v>
+        <v>0.3109981005456319</v>
       </c>
       <c r="G8">
-        <v>0.2194081773023058</v>
+        <v>0.202273394310609</v>
       </c>
       <c r="H8">
-        <v>0.001195246173770759</v>
+        <v>0.00116228373652949</v>
       </c>
       <c r="I8">
-        <v>0.002794204227274832</v>
+        <v>0.003020686026660613</v>
       </c>
       <c r="J8">
-        <v>0.2039120754990051</v>
+        <v>0.2303858628607429</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1028179371316842</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02498198018870745</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8988609175757816</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8419842838111578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9037325430991743</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8090728183926217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.039697047959635</v>
+        <v>3.031391486377004</v>
       </c>
       <c r="C9">
-        <v>0.8250778210002068</v>
+        <v>0.8660136262397771</v>
       </c>
       <c r="D9">
-        <v>0.08879606732917011</v>
+        <v>0.09310677597215289</v>
       </c>
       <c r="E9">
-        <v>0.3225724699517016</v>
+        <v>0.3166944617117906</v>
       </c>
       <c r="F9">
-        <v>0.3823437367454829</v>
+        <v>0.3625478633744379</v>
       </c>
       <c r="G9">
-        <v>0.2576925084825703</v>
+        <v>0.2366712031742892</v>
       </c>
       <c r="H9">
-        <v>0.004351058959048304</v>
+        <v>0.004144686297991584</v>
       </c>
       <c r="I9">
-        <v>0.006482901719736311</v>
+        <v>0.00622090834113731</v>
       </c>
       <c r="J9">
-        <v>0.210630759493462</v>
+        <v>0.2335108600068523</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0904311455215705</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02283376050370833</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.201365770171833</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9379235400468815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.210344560489645</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8806291757055789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.610633323601576</v>
+        <v>3.596600046345998</v>
       </c>
       <c r="C10">
-        <v>0.9583354748242243</v>
+        <v>1.017597131305052</v>
       </c>
       <c r="D10">
-        <v>0.1055769450721584</v>
+        <v>0.1122622710225016</v>
       </c>
       <c r="E10">
-        <v>0.3444728316976367</v>
+        <v>0.336649441253563</v>
       </c>
       <c r="F10">
-        <v>0.4213672076905723</v>
+        <v>0.3910204352004101</v>
       </c>
       <c r="G10">
-        <v>0.2805301336741763</v>
+        <v>0.2703762940850467</v>
       </c>
       <c r="H10">
-        <v>0.007552189467340042</v>
+        <v>0.00713769304720735</v>
       </c>
       <c r="I10">
-        <v>0.01033590811211926</v>
+        <v>0.00951814504940085</v>
       </c>
       <c r="J10">
-        <v>0.2131598490972593</v>
+        <v>0.214958048781007</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08133375046406854</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02216933493551387</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.388856544897905</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9921169577022511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.400007622759588</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9047461822453755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.036528320913703</v>
+        <v>4.021496882190888</v>
       </c>
       <c r="C11">
-        <v>1.078278585878962</v>
+        <v>1.127196446663902</v>
       </c>
       <c r="D11">
-        <v>0.1260320630777301</v>
+        <v>0.1346609431060699</v>
       </c>
       <c r="E11">
-        <v>0.1711871849875841</v>
+        <v>0.165285801558209</v>
       </c>
       <c r="F11">
-        <v>0.3756857169982197</v>
+        <v>0.3419395367412932</v>
       </c>
       <c r="G11">
-        <v>0.2316192167003237</v>
+        <v>0.2534186454452794</v>
       </c>
       <c r="H11">
-        <v>0.02521841492558607</v>
+        <v>0.02475987760542964</v>
       </c>
       <c r="I11">
-        <v>0.01227674077073715</v>
+        <v>0.01125310853963146</v>
       </c>
       <c r="J11">
-        <v>0.1837205172759084</v>
+        <v>0.1608264646495954</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07244961633996283</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01450595125137877</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.174523468188724</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.8269902178810469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.182000932065961</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7343004698074793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.284921598681251</v>
+        <v>4.27036424000255</v>
       </c>
       <c r="C12">
-        <v>1.148223885067324</v>
+        <v>1.184035782095464</v>
       </c>
       <c r="D12">
-        <v>0.1402311725142198</v>
+        <v>0.1494205499928114</v>
       </c>
       <c r="E12">
-        <v>0.08702375385522565</v>
+        <v>0.08252689371991195</v>
       </c>
       <c r="F12">
-        <v>0.3329982224214874</v>
+        <v>0.3013326456033667</v>
       </c>
       <c r="G12">
-        <v>0.1910774441532581</v>
+        <v>0.2267979668165694</v>
       </c>
       <c r="H12">
-        <v>0.06302542146040935</v>
+        <v>0.06257514480373771</v>
       </c>
       <c r="I12">
-        <v>0.01277185103948764</v>
+        <v>0.01163088883057561</v>
       </c>
       <c r="J12">
-        <v>0.1608879620121044</v>
+        <v>0.1362192868040744</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06908421790605729</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.009963266463941522</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9709025153745756</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.6933129717892967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9755059572295863</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6104879629225337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.407754040047848</v>
+        <v>4.394973848666041</v>
       </c>
       <c r="C13">
-        <v>1.189079763456618</v>
+        <v>1.209729745948948</v>
       </c>
       <c r="D13">
-        <v>0.1506915624244556</v>
+        <v>0.1587553863143256</v>
       </c>
       <c r="E13">
-        <v>0.06488996347051934</v>
+        <v>0.0614458661639814</v>
       </c>
       <c r="F13">
-        <v>0.2876352313858277</v>
+        <v>0.2635793761193668</v>
       </c>
       <c r="G13">
-        <v>0.1522035761343332</v>
+        <v>0.1853281851611115</v>
       </c>
       <c r="H13">
-        <v>0.1178343497951744</v>
+        <v>0.1174327961571464</v>
       </c>
       <c r="I13">
-        <v>0.01242282421923058</v>
+        <v>0.01133139238825809</v>
       </c>
       <c r="J13">
-        <v>0.1404959462999713</v>
+        <v>0.1280990658795531</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06824679521671095</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.007290278477568357</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7662208574138276</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.5681884308948639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7684310385057316</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5095351421253582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.436535652452733</v>
+        <v>4.425594745503929</v>
       </c>
       <c r="C14">
-        <v>1.205873805252168</v>
+        <v>1.21487444615093</v>
       </c>
       <c r="D14">
-        <v>0.1564402594143104</v>
+        <v>0.1628901721628182</v>
       </c>
       <c r="E14">
-        <v>0.08566406393591031</v>
+        <v>0.08268631786739533</v>
       </c>
       <c r="F14">
-        <v>0.2547944201843393</v>
+        <v>0.2379927439573493</v>
       </c>
       <c r="G14">
-        <v>0.126070786401776</v>
+        <v>0.1515520399830947</v>
       </c>
       <c r="H14">
-        <v>0.1665342809127424</v>
+        <v>0.1661793541165224</v>
       </c>
       <c r="I14">
-        <v>0.01187931645630957</v>
+        <v>0.01090971642294036</v>
       </c>
       <c r="J14">
-        <v>0.1274254006510489</v>
+        <v>0.1274921569037097</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06851855969622989</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.006416019987590671</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6264144580408839</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.4853663625998763</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6272016808394056</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.447753758937651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.415025023575538</v>
+        <v>4.404812826792067</v>
       </c>
       <c r="C15">
-        <v>1.205074281633074</v>
+        <v>1.210888568624853</v>
       </c>
       <c r="D15">
-        <v>0.1570327814090717</v>
+        <v>0.1627508971774603</v>
       </c>
       <c r="E15">
-        <v>0.09523283563270368</v>
+        <v>0.09236720210637017</v>
       </c>
       <c r="F15">
-        <v>0.2455888982324979</v>
+        <v>0.231470413195666</v>
       </c>
       <c r="G15">
-        <v>0.1192948426969949</v>
+        <v>0.1407124840581915</v>
       </c>
       <c r="H15">
-        <v>0.1788008573296764</v>
+        <v>0.1784666733829141</v>
       </c>
       <c r="I15">
-        <v>0.01165680067733454</v>
+        <v>0.01077531948730837</v>
       </c>
       <c r="J15">
-        <v>0.124393261925114</v>
+        <v>0.1293567075312652</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06877183230998485</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.006435776634362345</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5903813579685675</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.4646184419387822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5908468534163376</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4342823464535002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.138047797245804</v>
+        <v>4.130313273231025</v>
       </c>
       <c r="C16">
-        <v>1.139766203479098</v>
+        <v>1.143458954555456</v>
       </c>
       <c r="D16">
-        <v>0.1474350505949076</v>
+        <v>0.1505236598192283</v>
       </c>
       <c r="E16">
-        <v>0.09086627742784259</v>
+        <v>0.08845490286759272</v>
       </c>
       <c r="F16">
-        <v>0.2372682862302753</v>
+        <v>0.2311283017727703</v>
       </c>
       <c r="G16">
-        <v>0.1166363224133491</v>
+        <v>0.1199495461736291</v>
       </c>
       <c r="H16">
-        <v>0.1649847769760271</v>
+        <v>0.1647454816722274</v>
       </c>
       <c r="I16">
-        <v>0.01002208243801039</v>
+        <v>0.009490779174471164</v>
       </c>
       <c r="J16">
-        <v>0.126856798329861</v>
+        <v>0.1506311726649088</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07027728356883278</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.007964472978369441</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.558365719616063</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.4639357436278715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5588258540502125</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4534611125210546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.911114346923114</v>
+        <v>3.904216543446921</v>
       </c>
       <c r="C17">
-        <v>1.081124960718483</v>
+        <v>1.088979634631954</v>
       </c>
       <c r="D17">
-        <v>0.1370426448388287</v>
+        <v>0.139387529871712</v>
       </c>
       <c r="E17">
-        <v>0.07066151999015347</v>
+        <v>0.06842431807446125</v>
       </c>
       <c r="F17">
-        <v>0.248159696891058</v>
+        <v>0.2438283710555638</v>
       </c>
       <c r="G17">
-        <v>0.1281731877424974</v>
+        <v>0.1229205590626989</v>
       </c>
       <c r="H17">
-        <v>0.1267048276020972</v>
+        <v>0.1265089771292338</v>
       </c>
       <c r="I17">
-        <v>0.009119443283237771</v>
+        <v>0.00877548659267724</v>
       </c>
       <c r="J17">
-        <v>0.1356030068471767</v>
+        <v>0.1679388412295921</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07187547837928432</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.009456716284605093</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6053348531955791</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.5065780345748152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6064563480324594</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.4999696188402112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.70471604934221</v>
+        <v>3.69741398989288</v>
       </c>
       <c r="C18">
-        <v>1.018911490291202</v>
+        <v>1.036985611533936</v>
       </c>
       <c r="D18">
-        <v>0.1248650534847684</v>
+        <v>0.1275049107860866</v>
       </c>
       <c r="E18">
-        <v>0.06614472858253917</v>
+        <v>0.06360674221391882</v>
       </c>
       <c r="F18">
-        <v>0.2787927107621684</v>
+        <v>0.2723754636588822</v>
       </c>
       <c r="G18">
-        <v>0.1557905778092135</v>
+        <v>0.1442208248508905</v>
       </c>
       <c r="H18">
-        <v>0.07396888511969024</v>
+        <v>0.07378222855174954</v>
       </c>
       <c r="I18">
-        <v>0.008470631717481858</v>
+        <v>0.008164052171330205</v>
       </c>
       <c r="J18">
-        <v>0.1519309066450134</v>
+        <v>0.1870066622428297</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07440387096096401</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01159961182484048</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7347522574483492</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.5992408843270738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7374919903356698</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5858498279652906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.532446663465976</v>
+        <v>3.523862475159547</v>
       </c>
       <c r="C19">
-        <v>0.9684460428638602</v>
+        <v>1.000116154556878</v>
       </c>
       <c r="D19">
-        <v>0.1132169561857665</v>
+        <v>0.1166594136394963</v>
       </c>
       <c r="E19">
-        <v>0.1218014630699251</v>
+        <v>0.1181377950708438</v>
       </c>
       <c r="F19">
-        <v>0.322589594825466</v>
+        <v>0.3113527728549812</v>
       </c>
       <c r="G19">
-        <v>0.195203541229084</v>
+        <v>0.1777498881293909</v>
       </c>
       <c r="H19">
-        <v>0.02955920820683389</v>
+        <v>0.02934827145122654</v>
       </c>
       <c r="I19">
-        <v>0.008565984538189575</v>
+        <v>0.008290331515977023</v>
       </c>
       <c r="J19">
-        <v>0.1733314605306049</v>
+        <v>0.2072926446738492</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0780217152922269</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01484607256480963</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9380057798965638</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7275842280305653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9433357584474464</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.699155630123613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.459905021455882</v>
+        <v>3.447586197180499</v>
       </c>
       <c r="C20">
-        <v>0.9359349886083521</v>
+        <v>0.99116387301234</v>
       </c>
       <c r="D20">
-        <v>0.1020533605203013</v>
+        <v>0.1075333843142516</v>
       </c>
       <c r="E20">
-        <v>0.3366545570757324</v>
+        <v>0.3294455177199112</v>
       </c>
       <c r="F20">
-        <v>0.4059437845363831</v>
+        <v>0.3816206446572323</v>
       </c>
       <c r="G20">
-        <v>0.2696195093278462</v>
+        <v>0.2490465188056632</v>
       </c>
       <c r="H20">
-        <v>0.006603705698656093</v>
+        <v>0.006260271215819735</v>
       </c>
       <c r="I20">
-        <v>0.00989249639407852</v>
+        <v>0.009420130297321805</v>
       </c>
       <c r="J20">
-        <v>0.2099114215791644</v>
+        <v>0.2286807504258945</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08311453516481215</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02171350986092335</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.340512498358763</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9620612614881878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.351157604879035</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8925393399512558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.869547010513713</v>
+        <v>3.851856779597483</v>
       </c>
       <c r="C21">
-        <v>1.027673473848552</v>
+        <v>1.095045490355204</v>
       </c>
       <c r="D21">
-        <v>0.112736585454968</v>
+        <v>0.12320507915625</v>
       </c>
       <c r="E21">
-        <v>0.3950721119701726</v>
+        <v>0.3856011536522814</v>
       </c>
       <c r="F21">
-        <v>0.4492494341475535</v>
+        <v>0.4002258747618299</v>
       </c>
       <c r="G21">
-        <v>0.2997896657970927</v>
+        <v>0.3304681484608949</v>
       </c>
       <c r="H21">
-        <v>0.009682557558723524</v>
+        <v>0.009076783898443075</v>
       </c>
       <c r="I21">
-        <v>0.01319361332269775</v>
+        <v>0.0120674751251828</v>
       </c>
       <c r="J21">
-        <v>0.2184521256839531</v>
+        <v>0.169320363518878</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07683235997914206</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02163952650841594</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.540366889932642</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.044265663439205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.552471094068835</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9015815815582044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.147371161083925</v>
+        <v>4.126089555165379</v>
       </c>
       <c r="C22">
-        <v>1.085867002850136</v>
+        <v>1.160051757752967</v>
       </c>
       <c r="D22">
-        <v>0.1200887819906029</v>
+        <v>0.1341298467155809</v>
       </c>
       <c r="E22">
-        <v>0.42008205326443</v>
+        <v>0.4093224145460042</v>
       </c>
       <c r="F22">
-        <v>0.4764599969285186</v>
+        <v>0.4101636446626813</v>
       </c>
       <c r="G22">
-        <v>0.318409971586604</v>
+        <v>0.3902968932809472</v>
       </c>
       <c r="H22">
-        <v>0.01185767332457321</v>
+        <v>0.01105701680163335</v>
       </c>
       <c r="I22">
-        <v>0.01532625563619572</v>
+        <v>0.01364272101068309</v>
       </c>
       <c r="J22">
-        <v>0.2235250156883239</v>
+        <v>0.1370929792405313</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07301111377401215</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02168680296652781</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.651906641432561</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.094590455118379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.664619862043551</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9010724253747782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.999690298050893</v>
+        <v>3.980349558685532</v>
       </c>
       <c r="C23">
-        <v>1.049990286930864</v>
+        <v>1.121217347408589</v>
       </c>
       <c r="D23">
-        <v>0.1158432002243046</v>
+        <v>0.1275388775647883</v>
       </c>
       <c r="E23">
-        <v>0.4070822712405899</v>
+        <v>0.3970025533193677</v>
       </c>
       <c r="F23">
-        <v>0.4636398993443009</v>
+        <v>0.4084531376132503</v>
       </c>
       <c r="G23">
-        <v>0.3101031628028181</v>
+        <v>0.3530321659519586</v>
       </c>
       <c r="H23">
-        <v>0.01067704997779369</v>
+        <v>0.009989786604255422</v>
       </c>
       <c r="I23">
-        <v>0.01391299267706803</v>
+        <v>0.01248126914582137</v>
       </c>
       <c r="J23">
-        <v>0.2216626384520026</v>
+        <v>0.159070489609789</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07534949691386039</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02217847236839354</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.591404959851502</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.072958977734658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.603975907476624</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9119982584025479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.43952649657308</v>
+        <v>3.427070220809071</v>
       </c>
       <c r="C24">
-        <v>0.922650828003583</v>
+        <v>0.9790305382111057</v>
       </c>
       <c r="D24">
-        <v>0.1003317799173971</v>
+        <v>0.1058474511212069</v>
       </c>
       <c r="E24">
-        <v>0.3574239686015233</v>
+        <v>0.3499262358909476</v>
       </c>
       <c r="F24">
-        <v>0.4137359040795801</v>
+        <v>0.3886842442622793</v>
       </c>
       <c r="G24">
-        <v>0.2772283640406314</v>
+        <v>0.2553817357820307</v>
       </c>
       <c r="H24">
-        <v>0.006693462256859961</v>
+        <v>0.006344863917342458</v>
       </c>
       <c r="I24">
-        <v>0.009468999852924931</v>
+        <v>0.008896582228398842</v>
       </c>
       <c r="J24">
-        <v>0.2139581759499407</v>
+        <v>0.2327785006738665</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08422426044274278</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02280753757240817</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.364484773908444</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.9866599912676293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.375559613802807</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9145578980775753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.835095813904104</v>
+        <v>2.828868397043379</v>
       </c>
       <c r="C25">
-        <v>0.7864478136759203</v>
+        <v>0.8199688839912938</v>
       </c>
       <c r="D25">
-        <v>0.08366601455141165</v>
+        <v>0.08718726327533233</v>
       </c>
       <c r="E25">
-        <v>0.3040787955970572</v>
+        <v>0.2990728906216802</v>
       </c>
       <c r="F25">
-        <v>0.3628675029291557</v>
+        <v>0.3468499539388006</v>
       </c>
       <c r="G25">
-        <v>0.2443433341420445</v>
+        <v>0.2214883324612558</v>
       </c>
       <c r="H25">
-        <v>0.003325287047591496</v>
+        <v>0.00318127823991976</v>
       </c>
       <c r="I25">
-        <v>0.005660982129368719</v>
+        <v>0.005655184293229532</v>
       </c>
       <c r="J25">
-        <v>0.2071917862755228</v>
+        <v>0.2360358267710936</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09317579622043404</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02271258524518149</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.120791081771941</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9022377387512961</v>
+        <v>1.128668584889056</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8559629302593095</v>
       </c>
     </row>
   </sheetData>
